--- a/Excel2Json/test.xlsx
+++ b/Excel2Json/test.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameWorkSpace\Tools\转化工具\UnityTransformToos\Excel2Json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD1493B-454B-4F58-8265-BCDA6BBC95C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CB5AAC-C7BA-4C1D-99FF-8781C9FF66D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7395" yWindow="4365" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="2190" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="AAAA1">Sheet1!$AA$12</definedName>
+    <definedName name="XFD1048597">Sheet1!$XFD$1048498</definedName>
+    <definedName name="XFD1049497">Sheet1!$XFD$1047498</definedName>
+    <definedName name="XFD1050497">Sheet1!$XFD$1040498</definedName>
+    <definedName name="XFD1060497">Sheet1!$XFD$1030498</definedName>
+    <definedName name="XFD1090497">Sheet1!$XFD$1000498</definedName>
+    <definedName name="XFD9990000">Sheet1!$XFD$20001</definedName>
+    <definedName name="XFD9999999">Sheet1!$XFD$1000000</definedName>
+    <definedName name="XFD99999999">Sheet1!$XFD$1000000</definedName>
+    <definedName name="XZS1">Sheet1!$XDS$1</definedName>
+    <definedName name="YU">Sheet1!$G$5</definedName>
+    <definedName name="YZY1">Sheet1!$GZY$1</definedName>
+    <definedName name="ZZY1">Sheet1!$GZY$1</definedName>
+    <definedName name="ZZZ1">Sheet1!$AA$12</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,28 +40,51 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Keco Crazy</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{ECB55F8B-0D3E-4EC6-893B-7E99D0E581AE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="微软雅黑"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>这是一个批注。这是一个批注。这是一个批注。这是一个批注。这是一个批注。这是一个批注。这是一个批注。这是一个批注。这是一个批注。这是一个批注。这是一个批注。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{D6D7CD91-F2B1-49BA-8625-27F96EE25010}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="微软雅黑"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>这是一个批注。这是一个批注。这是一个批注。这是一个批注。这是一个批注。这是一个批注。这是一个批注。这是一个批注。这是一个批注。这是一个批注。这是一个批注。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>itemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物品名字[start]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树木_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树木_02</t>
-  </si>
-  <si>
     <t>item_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,39 +101,54 @@
     <t>item_05</t>
   </si>
   <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>str1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>str2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>str3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>str4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>str5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树木_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树木_05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树木_04[ignore]</t>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropertyName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Descriptions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Test]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ignore]</t>
+  </si>
+  <si>
+    <t>{"id":"Str", "data":[["A","B","C"],["D","E","F"]]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,16 +171,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="81"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -134,14 +213,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,106 +566,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="8"/>
+    <col min="2" max="3" width="13.5" style="1"/>
+    <col min="4" max="4" width="39.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="9"/>
+    <col min="6" max="16384" width="13.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1.35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
+      <c r="E8" s="9">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>